--- a/unity_2020_1/Assets/Editor/Excel/excel.xlsx
+++ b/unity_2020_1/Assets/Editor/Excel/excel.xlsx
@@ -151,7 +151,7 @@
     <t xml:space="preserve">se_list</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;se&gt;</t>
+    <t xml:space="preserve">&lt;audio&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">ＳＥ用プレハブ作成</t>
@@ -1085,13 +1085,13 @@
   </sheetPr>
   <dimension ref="C6:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.93"/>
@@ -1100,7 +1100,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="13.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,9 +1463,9 @@
       <selection pane="topLeft" activeCell="G29" activeCellId="0" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.66"/>
@@ -1481,7 +1481,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,9 +1841,9 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.66"/>
@@ -1859,7 +1859,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="6.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2219,15 +2219,15 @@
       <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2377,15 +2377,15 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2535,9 +2535,9 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.69"/>
@@ -2546,8 +2546,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="5.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2681,9 +2680,9 @@
       <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.67"/>
@@ -2692,8 +2691,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1018" style="0" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1017" min="11" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,13 +2924,11 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,9 +3054,9 @@
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="10.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="29.17"/>
@@ -3068,7 +3064,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="5.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="10.96"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
